--- a/results/TransArC.xlsx
+++ b/results/TransArC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SAD-Code" sheetId="1" state="visible" r:id="rId2"/>
@@ -243,13 +243,13 @@
   </sheetPr>
   <dimension ref="B3:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.72"/>
@@ -475,9 +475,9 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.18"/>
   </cols>
   <sheetData>
@@ -699,9 +699,9 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.44"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -918,13 +918,13 @@
   </sheetPr>
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.28"/>
   </cols>
   <sheetData>
@@ -1041,7 +1041,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>47600</v>
+        <v>46495</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1020</v>
@@ -1055,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>26000</v>
+        <v>25727</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>78</v>
@@ -1083,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>165330</v>
+        <v>164736</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1584</v>

--- a/results/TransArC.xlsx
+++ b/results/TransArC.xlsx
@@ -247,9 +247,9 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.72"/>
@@ -475,9 +475,9 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.18"/>
   </cols>
   <sheetData>
@@ -699,9 +699,9 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,12 +919,12 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.28"/>
   </cols>
   <sheetData>
@@ -1047,7 +1047,7 @@
         <v>1020</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>13440</v>
+        <v>13128</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,7 +1061,7 @@
         <v>78</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>12000</v>
+        <v>11874</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,7 +1089,7 @@
         <v>1584</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>13360</v>
+        <v>13312</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
